--- a/docs/__20250823_ca_mcqs_by_llm_gemini-2.5-flash.xlsx
+++ b/docs/__20250823_ca_mcqs_by_llm_gemini-2.5-flash.xlsx
@@ -1,30 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aninfosysbv-my.sharepoint.com/personal/abdul_aninfosys_com/Documents/Workspace/Walsh_DBA_AIML/Courses/MS Capstone Project/Week_10_Final_submission/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace-capstone\Automated_MCQ_By_SLM_On_CA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{048E26AC-7F0D-43F1-9922-4F4344F33763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9064B8F-BDF5-4C4E-8761-A3073359BD26}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8C8514-C4AC-48E4-8879-4F7FD5204782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3640" yWindow="2810" windowWidth="14400" windowHeight="7270" tabRatio="420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="1" r:id="rId5"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="324">
   <si>
     <t>link</t>
   </si>
@@ -1619,18 +1614,6 @@
 C) By consuming native marine organisms, which then spread its fragments, and by being intentionally introduced for aquaculture.
 D) Its spread is mainly through deep-sea currents carrying its seeds, and its growth is accelerated by exceptionally cold water temperatures.
 **Correct Answer:** A</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Count of correctness</t>
-  </si>
-  <si>
-    <t>Count of distractor_quality</t>
   </si>
   <si>
     <t>Avg_score</t>
@@ -1724,7 +1707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1747,10 +1730,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1799,12 +1778,40 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[__20250823_ca_mcqs_by_llm_gemini-2.5-flash.xlsx]Sheet2!PivotTable6</c:name>
-    <c:fmtId val="1"/>
-  </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>MCQ AVG SCORE DISTRIBUTION</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1835,25 +1842,326 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg_score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>2.8718863749999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9983413749999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7331423749999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8795972499999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6228756249999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8644099999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.101894625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7484161249999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.99548075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7469618750000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9916476250000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9913856249999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.8234749999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.7290874999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2237892500000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.9839874999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2596716250000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2421670000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2665085</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2333646250000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2298065</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2439981250000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2371128750000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.2434103749999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.2430552500000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.2287157500000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.2428766250000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.244232625</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.2340592500000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.2409842499999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.73447312500000006</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.2323607499999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2456486249999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.2406353750000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.73149537499999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.73897024999999994</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.248694</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.2371928749999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.2540795</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.2407521250000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.2611780000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.74064750000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.2287742499999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.2424238750000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.2302673749999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.2498482499999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.2386089999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.2397191250000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.74632512500000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.2406922499999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.74209550000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.2415422500000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.2333506249999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.2527925</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.232223125</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.261233625</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.2368011249999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.2449216249999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.2381728750000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.225864375</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.2436497499999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.23698525</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.2407788750000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.247935375</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.2509766249999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.243654625</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.73142074999999995</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.2378131249999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.2446752500000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.242711125</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.244294</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.2372503749999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.2418817500000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.2322934999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-731B-43B8-AFAB-7D0B2D82128B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="462778288"/>
+        <c:axId val="462773488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="462778288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>MCQ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> ID</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1862,17 +2170,134 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462773488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="462773488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>AVG SCORE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1883,150 +2308,42 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-FF1B-4A98-A5CC-A60FCDA98B1B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-FF1B-4A98-A5CC-A60FCDA98B1B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$2:$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>63</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7396-46DE-942D-F625EFB9B21A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462778288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2035,37 +2352,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2107,22 +2393,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -2139,12 +2409,40 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[__20250823_ca_mcqs_by_llm_gemini-2.5-flash.xlsx]Sheet2!PivotTable9</c:name>
-    <c:fmtId val="1"/>
-  </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>MCQ Correctness  Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2175,25 +2473,296 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>correctness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-93DA-45FB-B48C-A333B3769B9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="579961072"/>
+        <c:axId val="579961552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="579961072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2202,17 +2771,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2223,230 +2790,161 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579961552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="579961552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>CORRECTNESS SCORE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$B$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-5A81-4DAF-BFAE-1D61B355A1F2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-5A81-4DAF-BFAE-1D61B355A1F2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-5A81-4DAF-BFAE-1D61B355A1F2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-5A81-4DAF-BFAE-1D61B355A1F2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$21:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$21:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>61</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D2CD-4B50-8331-A88D4E5005C7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579961072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2455,37 +2953,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2527,22 +2994,645 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>MCQ Distractor Quality Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>distractor_quality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2EF1-48A3-BFB1-027968176627}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="462854608"/>
+        <c:axId val="462840208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="462854608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>MCQ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> ID</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462840208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="462840208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>DISTRACTOR</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> QUALITY SCORE</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462854608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2626,8 +3716,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2684,7 +3814,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2735,13 +3865,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2752,19 +3875,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2802,7 +3918,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2845,23 +3961,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2966,8 +4081,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3099,20 +4214,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3146,7 +4260,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3203,7 +4317,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3254,13 +4368,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3271,19 +4378,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3321,7 +4421,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3364,23 +4464,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3485,8 +4584,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3618,12 +4717,302 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -3632,6 +5021,218 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3668,23 +5269,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD516B3-89E5-FE7A-9D7E-921FF9E0DFC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBECF648-A6F2-5AA5-4C39-01033A0C8F27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3704,23 +5305,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3000E4E9-1D2B-A259-1433-AE35C8CD7D9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F72B7B7-C571-0649-10CB-AB4763B23F30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3738,699 +5339,43 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CAF75F8-7147-F6FE-656A-51544A53466A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Abdul Wazed" refreshedDate="45906.975864930559" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="74" xr:uid="{AA7F60BC-C8DA-4A11-85F1-5D3D4EA48101}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="L1:L75" sheet="Sheet1"/>
-  </cacheSource>
-  <cacheFields count="1">
-    <cacheField name="correctness" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5" count="2">
-        <n v="5"/>
-        <n v="0"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Abdul Wazed" refreshedDate="45906.98948877315" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="74" xr:uid="{BEDB5B2D-3C92-4E0C-8D27-1AA5F1AFC820}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="M1:M75" sheet="Sheet1"/>
-  </cacheSource>
-  <cacheFields count="1">
-    <cacheField name="distractor_quality" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5" count="4">
-        <n v="5"/>
-        <n v="3"/>
-        <n v="0"/>
-        <n v="4"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="74">
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="74">
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15FA9B87-DD52-4D49-B827-D95763B2CD84}" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A20:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of distractor_quality" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2929BFA5-8ABF-4892-B746-DC065AA1F8F8}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A1:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of correctness" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4718,12 +5663,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4790,8 +5734,8 @@
       <c r="O1" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="P1" s="13" t="s">
-        <v>327</v>
+      <c r="P1" s="11" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="246.5" x14ac:dyDescent="0.35">
@@ -5088,7 +6032,7 @@
         <v>2.8644099999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -5204,7 +6148,7 @@
       <c r="E10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="14" t="s">
         <v>319</v>
       </c>
       <c r="G10" s="6">
@@ -5384,7 +6328,7 @@
         <v>2.9913856249999999</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>55</v>
       </c>
@@ -5435,7 +6379,7 @@
         <v>9.8234749999999996E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
@@ -5535,7 +6479,7 @@
         <v>3.2237892500000003</v>
       </c>
     </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>67</v>
       </c>
@@ -6272,7 +7216,7 @@
         <v>3.2409842499999999</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="145" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>129</v>
       </c>
@@ -6470,7 +7414,7 @@
         <v>3.2406353750000001</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="145" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>145</v>
       </c>
@@ -6521,7 +7465,7 @@
         <v>0.73149537499999995</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" ht="145" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>149</v>
       </c>
@@ -6817,7 +7761,7 @@
         <v>3.2611780000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" ht="145" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>175</v>
       </c>
@@ -7162,7 +8106,7 @@
         <v>3.2397191250000001</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" ht="203" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>203</v>
       </c>
@@ -7262,7 +8206,7 @@
         <v>3.2406922499999999</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>211</v>
       </c>
@@ -8048,7 +8992,7 @@
         <v>3.243654625</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" ht="145" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>276</v>
       </c>
@@ -8443,47 +9387,47 @@
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A76" s="11"/>
+      <c r="A76" s="9"/>
       <c r="B76"/>
       <c r="C76"/>
-      <c r="F76" s="12"/>
-    </row>
-    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="8"/>
-      <c r="G77" s="14">
+      <c r="G77" s="12">
         <f>AVERAGE(G2:G75)</f>
         <v>2.5339189189189184E-3</v>
       </c>
-      <c r="H77" s="14">
+      <c r="H77" s="12">
         <f t="shared" ref="H77:N77" si="2">AVERAGE(H2:H75)</f>
         <v>0.11142004054054051</v>
       </c>
-      <c r="I77" s="14">
+      <c r="I77" s="12">
         <f t="shared" si="2"/>
         <v>0.81180414864864869</v>
       </c>
-      <c r="J77" s="14">
+      <c r="J77" s="12">
         <f t="shared" si="2"/>
         <v>4.7297297297297298</v>
       </c>
-      <c r="K77" s="14">
+      <c r="K77" s="12">
         <f t="shared" si="2"/>
         <v>4.243243243243243</v>
       </c>
-      <c r="L77" s="14">
+      <c r="L77" s="12">
         <f t="shared" si="2"/>
         <v>4.256756756756757</v>
       </c>
-      <c r="M77" s="14">
+      <c r="M77" s="12">
         <f t="shared" si="2"/>
         <v>4.2162162162162158</v>
       </c>
-      <c r="N77" s="14">
+      <c r="N77" s="12">
         <f t="shared" si="2"/>
         <v>3.8513513513513513</v>
       </c>
-      <c r="O77" s="15"/>
-      <c r="P77" s="14"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="12"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="8"/>
@@ -8705,13 +9649,7 @@
       <c r="A150" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O77" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="11">
-      <filters blank="1">
-        <filter val="5"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O77" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{E00907A8-A471-4F2D-A3E1-A2593357B902}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{F679BD23-DDBD-4937-9D9A-73B290F2DE29}"/>
@@ -8733,111 +9671,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924F14BE-4ECC-4D0E-9A4D-D436B96D1B44}">
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="B1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="B4">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="B20" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="10">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="10">
-        <v>3</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="10">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="10">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="B25">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>